--- a/docu/TestUploadFolder/admin/TestExperiment7.xlsx
+++ b/docu/TestUploadFolder/admin/TestExperiment7.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3420B8-1BC4-4050-B8B2-05B9DF3A0ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C617C1-738F-41BC-A530-96879CA17116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Experiment conditions</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Dead volume</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -429,7 +432,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -440,9 +443,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,7 +729,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +798,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
